--- a/hallsWithAllData0.xlsx
+++ b/hallsWithAllData0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
   <si>
     <t>اليوم الاول</t>
   </si>
@@ -62,7 +62,7 @@
     <t>A1</t>
   </si>
   <si>
-    <t>اعدادي هندسه</t>
+    <t>تانيه اتصالات</t>
   </si>
   <si>
     <t>A2</t>
@@ -80,6 +80,9 @@
     <t>C0</t>
   </si>
   <si>
+    <t>اولي اتصالات</t>
+  </si>
+  <si>
     <t>C1</t>
   </si>
   <si>
@@ -89,16 +92,7 @@
     <t>C3</t>
   </si>
   <si>
-    <t>رابعه حاسبات</t>
-  </si>
-  <si>
-    <t>تانيه اتصالات</t>
-  </si>
-  <si>
     <t>تالته حاسبات</t>
-  </si>
-  <si>
-    <t>اولي اتصالات</t>
   </si>
 </sst>
 </file>
@@ -585,28 +579,28 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>441</v>
       </c>
       <c r="D4" s="3">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3">
-        <v>616</v>
+        <v>556</v>
       </c>
       <c r="G4" s="3">
-        <v>665</v>
+        <v>615</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="3">
-        <v>441</v>
-      </c>
-      <c r="J4" s="3">
-        <v>520</v>
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="K4" s="3">
         <v>80</v>
@@ -626,10 +620,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="3">
-        <v>81</v>
+        <v>521</v>
       </c>
       <c r="D5" s="3">
-        <v>115</v>
+        <v>555</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
@@ -641,13 +635,13 @@
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3">
-        <v>521</v>
-      </c>
-      <c r="J5" s="3">
-        <v>555</v>
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="K5" s="3">
         <v>35</v>
@@ -664,13 +658,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3">
-        <v>116</v>
-      </c>
-      <c r="D6" s="3">
-        <v>145</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
@@ -705,13 +699,13 @@
         <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3">
-        <v>146</v>
-      </c>
-      <c r="D7" s="3">
-        <v>170</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
@@ -723,13 +717,13 @@
         <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="3">
-        <v>556</v>
-      </c>
-      <c r="J7" s="3">
-        <v>580</v>
+        <v>11</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="K7" s="3">
         <v>25</v>
@@ -746,13 +740,13 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3">
-        <v>171</v>
-      </c>
-      <c r="D8" s="3">
-        <v>210</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
@@ -764,13 +758,13 @@
         <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="3">
-        <v>581</v>
-      </c>
-      <c r="J8" s="3">
-        <v>615</v>
+        <v>11</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="K8" s="3">
         <v>40</v>
@@ -787,13 +781,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="D9" s="3">
-        <v>235</v>
+        <v>345</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
@@ -805,13 +799,13 @@
         <v>13</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="3">
-        <v>321</v>
-      </c>
-      <c r="J9" s="3">
-        <v>345</v>
+        <v>11</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="K9" s="3">
         <v>25</v>
@@ -825,16 +819,16 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" s="3">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="D10" s="3">
-        <v>255</v>
+        <v>365</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
@@ -846,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="3">
-        <v>346</v>
-      </c>
-      <c r="J10" s="3">
-        <v>365</v>
+        <v>11</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="K10" s="3">
         <v>20</v>
@@ -866,16 +860,16 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3">
-        <v>256</v>
+        <v>366</v>
       </c>
       <c r="D11" s="3">
-        <v>295</v>
+        <v>405</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
@@ -887,13 +881,13 @@
         <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="3">
-        <v>366</v>
-      </c>
-      <c r="J11" s="3">
-        <v>405</v>
+        <v>11</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="K11" s="3">
         <v>40</v>
@@ -907,16 +901,16 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3">
-        <v>296</v>
+        <v>406</v>
       </c>
       <c r="D12" s="3">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
@@ -928,13 +922,13 @@
         <v>13</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="3">
-        <v>406</v>
-      </c>
-      <c r="J12" s="3">
-        <v>440</v>
+        <v>11</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="K12" s="3">
         <v>35</v>

--- a/hallsWithAllData0.xlsx
+++ b/hallsWithAllData0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="53">
   <si>
     <t>اليوم الاول</t>
   </si>
@@ -47,7 +47,115 @@
     <t>رقم الدور</t>
   </si>
   <si>
-    <t>A0</t>
+    <t>مدرج رقم (1) دور اول المبنى الجديد</t>
+  </si>
+  <si>
+    <t>اعدادى</t>
+  </si>
+  <si>
+    <t>مدرج رقم (2) دور اول المبنى الجديد</t>
+  </si>
+  <si>
+    <t>مدرج رقم (3) دور ثانى المبنى الجديد</t>
+  </si>
+  <si>
+    <t>مدرج رقم (4) دور ثانى المبنى الجديد</t>
+  </si>
+  <si>
+    <t>مدرج رقم (5) دور ثالث المينى الجديد</t>
+  </si>
+  <si>
+    <t>مدرج رقم (6) دور ثالث المبنى الجديد</t>
+  </si>
+  <si>
+    <t>مدرج رقم (7) دور رابع المبنى الجدبد</t>
+  </si>
+  <si>
+    <t>مدرج رقم (8) دور رابع المبنى الجدبد</t>
+  </si>
+  <si>
+    <t>SB4-10(10) دور رابع صاله</t>
+  </si>
+  <si>
+    <t>SB4-9(9) دور رابع صاله</t>
+  </si>
+  <si>
+    <t>SB4-8  (8)دور رابع صاله</t>
+  </si>
+  <si>
+    <t>SB4-7(7) دور رابع صاله</t>
+  </si>
+  <si>
+    <t>SB4-6  (6)دور رابع صاله</t>
+  </si>
+  <si>
+    <t>SB4-5  (5)دور رابع صاله</t>
+  </si>
+  <si>
+    <t>SB4-4  (4)دور رابع صاله</t>
+  </si>
+  <si>
+    <t>SB4-3  (3)دور رابع صاله</t>
+  </si>
+  <si>
+    <t>SB4-1  (1)دور رابع صاله</t>
+  </si>
+  <si>
+    <t>SB4-20(20) دور رابع صاله</t>
+  </si>
+  <si>
+    <t>SB4-19  (19)دور رابع صاله</t>
+  </si>
+  <si>
+    <t>SB4-18(18) دور رابع صاله</t>
+  </si>
+  <si>
+    <t>SB4-17  (17)دور رابع صاله</t>
+  </si>
+  <si>
+    <t>SB4-16(16) دور رابع صاله</t>
+  </si>
+  <si>
+    <t>SB4-15(15) دور رابع صاله</t>
+  </si>
+  <si>
+    <t>SB4-14(14) دور رابع صاله</t>
+  </si>
+  <si>
+    <t>اولى كهرباء اتصالات</t>
+  </si>
+  <si>
+    <t>ثالثة كهرباء اتصالات</t>
+  </si>
+  <si>
+    <t>رابعة كهرباء حاسبات</t>
+  </si>
+  <si>
+    <t>ثالثة كهرباء حاسبات</t>
+  </si>
+  <si>
+    <t>ثالثة ميكانيكا قوى</t>
+  </si>
+  <si>
+    <t>رابعة ميكانيكا قوى</t>
+  </si>
+  <si>
+    <t>ثانية كهرباء اتصالات</t>
+  </si>
+  <si>
+    <t>اولى ميكانيكا قوى</t>
+  </si>
+  <si>
+    <t>ثانية كهرباء قوى</t>
+  </si>
+  <si>
+    <t>ثانية ميكانيكا قوى</t>
+  </si>
+  <si>
+    <t>اولى ميكانيكا انتاج</t>
+  </si>
+  <si>
+    <t>اولى كهرباء قوى</t>
   </si>
   <si>
     <t>فارغه</t>
@@ -59,40 +167,13 @@
     <t>---</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>تانيه اتصالات</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>B0</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>C0</t>
-  </si>
-  <si>
-    <t>اولي اتصالات</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>تالته حاسبات</t>
+    <t>رابعة كهرباء اتصالات</t>
+  </si>
+  <si>
+    <t>ثالثة كهرباء قوى</t>
+  </si>
+  <si>
+    <t>رابعة كهرباء قوى</t>
   </si>
 </sst>
 </file>
@@ -460,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,32 +618,32 @@
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="F3" s="3">
+        <v>141001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>141025</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="I3" s="3">
+        <v>251001</v>
+      </c>
+      <c r="J3" s="3">
+        <v>251025</v>
       </c>
       <c r="K3" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L3" s="3">
         <v>0</v>
@@ -573,122 +654,122 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3">
-        <v>441</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3">
-        <v>520</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3">
+        <v>141026</v>
+      </c>
+      <c r="G4" s="3">
+        <v>141050</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="3">
+        <v>251026</v>
+      </c>
+      <c r="J4" s="3">
+        <v>251050</v>
+      </c>
+      <c r="K4" s="3">
         <v>25</v>
       </c>
-      <c r="F4" s="3">
-        <v>556</v>
-      </c>
-      <c r="G4" s="3">
-        <v>615</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="3">
-        <v>80</v>
-      </c>
       <c r="L4" s="3">
         <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3">
-        <v>521</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3">
-        <v>555</v>
+        <v>80</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="F5" s="3">
+        <v>141051</v>
+      </c>
+      <c r="G5" s="3">
+        <v>141080</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="I5" s="3">
+        <v>251051</v>
+      </c>
+      <c r="J5" s="3">
+        <v>251080</v>
       </c>
       <c r="K5" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
       </c>
       <c r="M5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
+      <c r="C6" s="3">
+        <v>81</v>
+      </c>
+      <c r="D6" s="3">
+        <v>105</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="F6" s="3">
+        <v>141081</v>
+      </c>
+      <c r="G6" s="3">
+        <v>141095</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="I6" s="3">
+        <v>251081</v>
+      </c>
+      <c r="J6" s="3">
+        <v>251105</v>
       </c>
       <c r="K6" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
@@ -696,248 +777,1478 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
+      <c r="C7" s="3">
+        <v>106</v>
+      </c>
+      <c r="D7" s="3">
+        <v>130</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="F7" s="3">
+        <v>341001</v>
+      </c>
+      <c r="G7" s="3">
+        <v>341025</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="I7" s="3">
+        <v>251106</v>
+      </c>
+      <c r="J7" s="3">
+        <v>251130</v>
       </c>
       <c r="K7" s="3">
         <v>25</v>
       </c>
       <c r="L7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
+      <c r="C8" s="3">
+        <v>131</v>
+      </c>
+      <c r="D8" s="3">
+        <v>160</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="F8" s="3">
+        <v>341026</v>
+      </c>
+      <c r="G8" s="3">
+        <v>341047</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="I8" s="3">
+        <v>251131</v>
+      </c>
+      <c r="J8" s="3">
+        <v>251160</v>
       </c>
       <c r="K8" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="D9" s="3">
-        <v>345</v>
+        <v>185</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="F9" s="3">
+        <v>443001</v>
+      </c>
+      <c r="G9" s="3">
+        <v>443025</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="I9" s="3">
+        <v>152001</v>
+      </c>
+      <c r="J9" s="3">
+        <v>152025</v>
       </c>
       <c r="K9" s="3">
         <v>25</v>
       </c>
       <c r="L9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3">
-        <v>346</v>
+        <v>186</v>
       </c>
       <c r="D10" s="3">
-        <v>365</v>
+        <v>210</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="F10" s="3">
+        <v>443026</v>
+      </c>
+      <c r="G10" s="3">
+        <v>443050</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="I10" s="3">
+        <v>152026</v>
+      </c>
+      <c r="J10" s="3">
+        <v>152050</v>
       </c>
       <c r="K10" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3">
-        <v>366</v>
+        <v>211</v>
       </c>
       <c r="D11" s="3">
-        <v>405</v>
+        <v>240</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="F11" s="3">
+        <v>443051</v>
+      </c>
+      <c r="G11" s="3">
+        <v>443058</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="I11" s="3">
+        <v>152051</v>
+      </c>
+      <c r="J11" s="3">
+        <v>152080</v>
       </c>
       <c r="K11" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L11" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>406</v>
+        <v>241</v>
       </c>
       <c r="D12" s="3">
-        <v>440</v>
+        <v>265</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="F12" s="3">
+        <v>343001</v>
+      </c>
+      <c r="G12" s="3">
+        <v>343025</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="I12" s="3">
+        <v>152081</v>
+      </c>
+      <c r="J12" s="3">
+        <v>152105</v>
       </c>
       <c r="K12" s="3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L12" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>266</v>
+      </c>
+      <c r="D13" s="3">
+        <v>290</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="3">
+        <v>343026</v>
+      </c>
+      <c r="G13" s="3">
+        <v>343050</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="3">
+        <v>152106</v>
+      </c>
+      <c r="J13" s="3">
+        <v>152130</v>
+      </c>
+      <c r="K13" s="3">
+        <v>25</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>291</v>
+      </c>
+      <c r="D14" s="3">
+        <v>320</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="3">
+        <v>343051</v>
+      </c>
+      <c r="G14" s="3">
+        <v>343077</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="3">
+        <v>152131</v>
+      </c>
+      <c r="J14" s="3">
+        <v>152150</v>
+      </c>
+      <c r="K14" s="3">
+        <v>30</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <v>321</v>
+      </c>
+      <c r="D15" s="3">
+        <v>345</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="3">
+        <v>351001</v>
+      </c>
+      <c r="G15" s="3">
+        <v>351025</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="3">
+        <v>142001</v>
+      </c>
+      <c r="J15" s="3">
+        <v>142025</v>
+      </c>
+      <c r="K15" s="3">
+        <v>25</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3">
+        <v>346</v>
+      </c>
+      <c r="D16" s="3">
+        <v>370</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3">
+        <v>351026</v>
+      </c>
+      <c r="G16" s="3">
+        <v>351050</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="3">
+        <v>142026</v>
+      </c>
+      <c r="J16" s="3">
+        <v>142050</v>
+      </c>
+      <c r="K16" s="3">
+        <v>25</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3">
+        <v>371</v>
+      </c>
+      <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3">
+        <v>351051</v>
+      </c>
+      <c r="G17" s="3">
+        <v>351080</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="3">
+        <v>142051</v>
+      </c>
+      <c r="J17" s="3">
+        <v>142080</v>
+      </c>
+      <c r="K17" s="3">
+        <v>30</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3">
+        <v>401</v>
+      </c>
+      <c r="D18" s="3">
+        <v>425</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="3">
+        <v>351081</v>
+      </c>
+      <c r="G18" s="3">
+        <v>351105</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="3">
+        <v>142081</v>
+      </c>
+      <c r="J18" s="3">
+        <v>142105</v>
+      </c>
+      <c r="K18" s="3">
+        <v>25</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3">
+        <v>426</v>
+      </c>
+      <c r="D19" s="3">
+        <v>450</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3">
+        <v>351106</v>
+      </c>
+      <c r="G19" s="3">
+        <v>351130</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="3">
+        <v>142106</v>
+      </c>
+      <c r="J19" s="3">
+        <v>142122</v>
+      </c>
+      <c r="K19" s="3">
+        <v>25</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3">
+        <v>451</v>
+      </c>
+      <c r="D20" s="3">
+        <v>480</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3">
+        <v>351131</v>
+      </c>
+      <c r="G20" s="3">
+        <v>351159</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="3">
+        <v>30</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3">
+        <v>481</v>
+      </c>
+      <c r="D21" s="3">
+        <v>505</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3">
+        <v>451001</v>
+      </c>
+      <c r="G21" s="3">
+        <v>451025</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="3">
+        <v>441001</v>
+      </c>
+      <c r="J21" s="3">
+        <v>441025</v>
+      </c>
+      <c r="K21" s="3">
+        <v>25</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3">
+        <v>506</v>
+      </c>
+      <c r="D22" s="3">
+        <v>530</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3">
+        <v>451026</v>
+      </c>
+      <c r="G22" s="3">
+        <v>451050</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="3">
+        <v>441026</v>
+      </c>
+      <c r="J22" s="3">
+        <v>441037</v>
+      </c>
+      <c r="K22" s="3">
+        <v>25</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3">
+        <v>531</v>
+      </c>
+      <c r="D23" s="3">
+        <v>560</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="3">
+        <v>451051</v>
+      </c>
+      <c r="G23" s="3">
+        <v>451080</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="3">
+        <v>30</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3">
+        <v>561</v>
+      </c>
+      <c r="D24" s="3">
+        <v>585</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="3">
+        <v>451081</v>
+      </c>
+      <c r="G24" s="3">
+        <v>451105</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="3">
+        <v>25</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3">
+        <v>586</v>
+      </c>
+      <c r="D25" s="3">
+        <v>610</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="3">
+        <v>451106</v>
+      </c>
+      <c r="G25" s="3">
+        <v>451130</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="3">
+        <v>25</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3">
+        <v>611</v>
+      </c>
+      <c r="D26" s="3">
+        <v>640</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="3">
+        <v>451131</v>
+      </c>
+      <c r="G26" s="3">
+        <v>451148</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="3">
+        <v>30</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3">
+        <v>641</v>
+      </c>
+      <c r="D27" s="3">
+        <v>668</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="3">
+        <v>241001</v>
+      </c>
+      <c r="G27" s="3">
+        <v>241028</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="3">
+        <v>342001</v>
+      </c>
+      <c r="J27" s="3">
+        <v>342028</v>
+      </c>
+      <c r="K27" s="3">
+        <v>28</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3">
+        <v>669</v>
+      </c>
+      <c r="D28" s="3">
+        <v>696</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="3">
+        <v>241029</v>
+      </c>
+      <c r="G28" s="3">
+        <v>241056</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="3">
+        <v>342029</v>
+      </c>
+      <c r="J28" s="3">
+        <v>342056</v>
+      </c>
+      <c r="K28" s="3">
+        <v>28</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3">
+        <v>697</v>
+      </c>
+      <c r="D29" s="3">
+        <v>724</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="3">
+        <v>241057</v>
+      </c>
+      <c r="G29" s="3">
+        <v>241084</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="3">
+        <v>342057</v>
+      </c>
+      <c r="J29" s="3">
+        <v>342084</v>
+      </c>
+      <c r="K29" s="3">
+        <v>28</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3">
+        <v>725</v>
+      </c>
+      <c r="D30" s="3">
+        <v>752</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="3">
+        <v>241085</v>
+      </c>
+      <c r="G30" s="3">
+        <v>241108</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="3">
+        <v>342085</v>
+      </c>
+      <c r="J30" s="3">
+        <v>342112</v>
+      </c>
+      <c r="K30" s="3">
+        <v>28</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3">
+        <v>753</v>
+      </c>
+      <c r="D31" s="3">
+        <v>780</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="3">
+        <v>151001</v>
+      </c>
+      <c r="G31" s="3">
+        <v>151028</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="3">
+        <v>342113</v>
+      </c>
+      <c r="J31" s="3">
+        <v>342140</v>
+      </c>
+      <c r="K31" s="3">
+        <v>28</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3">
+        <v>781</v>
+      </c>
+      <c r="D32" s="3">
+        <v>808</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="3">
+        <v>151029</v>
+      </c>
+      <c r="G32" s="3">
+        <v>151056</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="3">
+        <v>342141</v>
+      </c>
+      <c r="J32" s="3">
+        <v>342168</v>
+      </c>
+      <c r="K32" s="3">
+        <v>28</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="3">
+        <v>809</v>
+      </c>
+      <c r="D33" s="3">
+        <v>836</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="3">
+        <v>151057</v>
+      </c>
+      <c r="G33" s="3">
+        <v>151084</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="3">
+        <v>342169</v>
+      </c>
+      <c r="J33" s="3">
+        <v>342196</v>
+      </c>
+      <c r="K33" s="3">
+        <v>28</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3">
+        <v>837</v>
+      </c>
+      <c r="D34" s="3">
+        <v>864</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="3">
+        <v>151085</v>
+      </c>
+      <c r="G34" s="3">
+        <v>151112</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="3">
+        <v>342197</v>
+      </c>
+      <c r="J34" s="3">
+        <v>342211</v>
+      </c>
+      <c r="K34" s="3">
+        <v>28</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="3">
+        <v>865</v>
+      </c>
+      <c r="D35" s="3">
+        <v>892</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="3">
+        <v>151113</v>
+      </c>
+      <c r="G35" s="3">
+        <v>151138</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="3">
+        <v>442001</v>
+      </c>
+      <c r="J35" s="3">
+        <v>442028</v>
+      </c>
+      <c r="K35" s="3">
+        <v>28</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3">
+        <v>893</v>
+      </c>
+      <c r="D36" s="3">
+        <v>920</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="3">
+        <v>242001</v>
+      </c>
+      <c r="G36" s="3">
+        <v>242028</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="3">
+        <v>442029</v>
+      </c>
+      <c r="J36" s="3">
+        <v>442056</v>
+      </c>
+      <c r="K36" s="3">
+        <v>28</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="3">
+        <v>921</v>
+      </c>
+      <c r="D37" s="3">
+        <v>948</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="3">
+        <v>242029</v>
+      </c>
+      <c r="G37" s="3">
+        <v>242056</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="3">
+        <v>442057</v>
+      </c>
+      <c r="J37" s="3">
+        <v>442084</v>
+      </c>
+      <c r="K37" s="3">
+        <v>28</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="3">
+        <v>949</v>
+      </c>
+      <c r="D38" s="3">
+        <v>976</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="3">
+        <v>242057</v>
+      </c>
+      <c r="G38" s="3">
+        <v>242084</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="3">
+        <v>442085</v>
+      </c>
+      <c r="J38" s="3">
+        <v>442112</v>
+      </c>
+      <c r="K38" s="3">
+        <v>28</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="3">
+        <v>977</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1004</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="3">
+        <v>242085</v>
+      </c>
+      <c r="G39" s="3">
+        <v>242112</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="3">
+        <v>442113</v>
+      </c>
+      <c r="J39" s="3">
+        <v>442140</v>
+      </c>
+      <c r="K39" s="3">
+        <v>28</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1005</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1032</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="3">
+        <v>242113</v>
+      </c>
+      <c r="G40" s="3">
+        <v>242140</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="3">
+        <v>442141</v>
+      </c>
+      <c r="J40" s="3">
+        <v>442164</v>
+      </c>
+      <c r="K40" s="3">
+        <v>28</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1033</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1060</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="3">
+        <v>242141</v>
+      </c>
+      <c r="G41" s="3">
+        <v>242168</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41" s="3">
+        <v>28</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1061</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1086</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="3">
+        <v>242169</v>
+      </c>
+      <c r="G42" s="3">
+        <v>242180</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" s="3">
+        <v>28</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
